--- a/Python_Library.xlsx
+++ b/Python_Library.xlsx
@@ -4,17 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ctypes" sheetId="1" r:id="rId1"/>
+    <sheet name="Built-in Functions" sheetId="2" r:id="rId2"/>
+    <sheet name="openpyxl" sheetId="3" r:id="rId3"/>
+    <sheet name="html" sheetId="4" r:id="rId4"/>
+    <sheet name="CSS" sheetId="5" r:id="rId5"/>
+    <sheet name="JS" sheetId="6" r:id="rId6"/>
+    <sheet name="encoding" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="160">
   <si>
     <t>1. 加载动态链接库： ctypes导出两种对象,cdll和windll，可以用于加载动态链接库。windll库采用stdcall调用函数，stdcall用cdecl调用函数。 在windows中导入动态链接库时可以像访问类属性那样，采用windll.XXX的方式，Windows会自动添加“.dll”后缀。</t>
   </si>
@@ -295,9 +301,6 @@
     </r>
   </si>
   <si>
-    <t>11. 可以通过byref()传引用，或pointer()传参</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">&gt;&gt;&gt; i = c_int()
 &gt;&gt;&gt; f = c_float()
@@ -432,6 +435,385 @@
 1 2 3 4 5 6 7 8 9 10
 &gt;&gt;&gt;
 </t>
+  </si>
+  <si>
+    <t>14. 指针</t>
+  </si>
+  <si>
+    <t>指针实例可以通过调用pointer()函数获得，指针实例有一个contents属性返回所指向的对象， 但是contents返回的是一个和原指针指向地址内容相同的新对象，不是原来的对象</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; from ctypes import *
+&gt;&gt;&gt; i = c_int(42)
+&gt;&gt;&gt; pi = pointer(i)
+&gt;&gt;&gt; pi.contents
+c_long(42)
+&gt;&gt;&gt; pi.contents is i
+False
+&gt;&gt;&gt; pi.contents is pi.contents
+False
+&gt;&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>给pointer的contents属性赋新的对象则会使指针指向新的对象地址：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; i = c_int(99)
+&gt;&gt;&gt; pi.contents = i
+&gt;&gt;&gt; pi.contents
+c_long(99)
+&gt;&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>指针也可以通过序号访问，向指针的序号赋值也可以改变指针指向的对象，例如：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; pi[0]
+99
+&gt;&gt;&gt; print(i)
+c_long(99)
+&gt;&gt;&gt; pi[0] = 22
+&gt;&gt;&gt; print(i)
+c_long(22)
+&gt;&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>也可以使用非零序号，但是必须非常小心，通常只有当收到C函数传来的指针，并且知道该指针指向一个数组时才会这么用</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; PI = POINTER(c_int)
+&gt;&gt;&gt; PI
+&lt;class 'ctypes.LP_c_long'&gt;
+&gt;&gt;&gt; PI(42)
+Traceback (most recent call last):
+  File "&lt;stdin&gt;", line 1, in &lt;module&gt;
+TypeError: expected c_long instead of int
+&gt;&gt;&gt; PI(c_int(42))
+&lt;ctypes.LP_c_long object at 0x...&gt;
+&gt;&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>实际上，pointer()函数是通过POINTER()函数来实现的，POINTER函数接受任何ctypes类型，并且返回一个新指针类型，该指针类型用ctypes类型对象初始化则生成指针</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; null_ptr = POINTER(c_int)()
+&gt;&gt;&gt; print(bool(null_ptr))
+False
+&gt;&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>若初始化对象为空则生成空指针，ctypes会自动检查空指针</t>
+  </si>
+  <si>
+    <t>11. 可以通过byref()传引用，或pointer()传指针</t>
+  </si>
+  <si>
+    <t>15. 类型转换</t>
+  </si>
+  <si>
+    <t>ctypes 通常情况下会进行类型检查，但是也有例外，例如，POINTER(c_int)类型可以接收c_int数组类型，甚至如果一个指针类型（如POINTER(c_int)）在函数argtypes中声明，一个该指针所指向的类型可以直接传给该函数，ctypes会自动使用byref()进行转换（感觉byref很像C语言中的取地址符&amp;）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; class Bar(Structure):
+...     _fields_ = [("count", c_int), ("values", POINTER(c_int))]
+...
+&gt;&gt;&gt; bar = Bar()
+&gt;&gt;&gt; bar.values = (c_int * 3)(1, 2, 3)
+&gt;&gt;&gt; bar.count = 3
+&gt;&gt;&gt; for i in range(bar.count):
+...     print(bar.values[i])
+...
+1
+2
+3
+&gt;&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>POINTER类型页可以指向None，即空指针</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; bar.values = None
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; a = (c_byte * 4)()
+&gt;&gt;&gt; cast(a, POINTER(c_int))
+&lt;ctypes.LP_c_long object at ...&gt;
+&gt;&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; bar = Bar()
+&gt;&gt;&gt; bar.values = cast((c_byte * 4)(), POINTER(c_int))
+&gt;&gt;&gt; print(bar.values[0])
+0
+&gt;&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>16. 类型前向引用</t>
+  </si>
+  <si>
+    <t>C语言中的前向引用一般如下：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">struct cell; /* forward declaration */
+struct cell {
+    char *name;
+    struct cell *next;
+};
+</t>
+  </si>
+  <si>
+    <t>在Python中可以这样实现：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; from ctypes import *
+&gt;&gt;&gt; class cell(Structure):
+...     pass
+...
+&gt;&gt;&gt; cell._fields_ = [("name", c_char_p),
+...                  ("next", POINTER(cell))]
+&gt;&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>当需要进行类型转换时，可以使用cast()函数。该函数用于将一个ctypes指针强制转换成其他ctypes类型的指针，它接受两个参数，待转换ctypes指针和目标指针类型，返回第二个参数类型的指针，指向第一个参数的地址</t>
+  </si>
+  <si>
+    <t>16. 回调函数</t>
+  </si>
+  <si>
+    <t>可以通过CFUNCTYPE()和WINFUNCTYPE()生成函数类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; IntArray5 = c_int * 5
+&gt;&gt;&gt; ia = IntArray5(5, 1, 7, 33, 99)
+&gt;&gt;&gt; qsort = libc.qsort
+&gt;&gt;&gt; qsort.restype = None
+&gt;&gt;&gt; CMPFUNC = CFUNCTYPE(c_int, POINTER(c_int), POINTER(c_int))
+&gt;&gt;&gt; def py_cmp_func(a, b):
+...     print("py_cmp_func", a[0], b[0])
+...     return 0
+...
+&gt;&gt;&gt; cmp_func = CMPFUNC(py_cmp_func)
+&gt;&gt;&gt; qsort(ia, len(ia), sizeof(c_int), cmp_func)  
+py_cmp_func 5 1
+py_cmp_func 33 99
+py_cmp_func 7 33
+py_cmp_func 5 7
+py_cmp_func 1 7
+&gt;&gt;&gt;
+</t>
+  </si>
+  <si>
+    <t>1. all()</t>
+  </si>
+  <si>
+    <t>所有元素为真则返回真</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def all(iterable):
+    for element in iterable:
+        if not element:
+            return False
+    return True
+</t>
+  </si>
+  <si>
+    <t>2.  any()</t>
+  </si>
+  <si>
+    <t>任意元素为真则返回真</t>
+  </si>
+  <si>
+    <t xml:space="preserve">def any(iterable):
+    for element in iterable:
+        if element:
+            return True
+    return False
+</t>
+  </si>
+  <si>
+    <t>3. bool(x)</t>
+  </si>
+  <si>
+    <t>若x为零，为None或为空，则返回false，否则返回true</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. bytearray([source[, encoding[, errors]]]) 
+</t>
+  </si>
+  <si>
+    <t>生成字节数组，若参数为字符串，则必须同时指定encoding； 若为数字，则生成相应大小的数组， 数组内容可更改</t>
+  </si>
+  <si>
+    <t>5. bytes()</t>
+  </si>
+  <si>
+    <t>功能和bytearray相同，但是生成打数组内容不可变</t>
+  </si>
+  <si>
+    <t>6. callable()</t>
+  </si>
+  <si>
+    <t>对象是否可调用，true未必可调用，false一定不可调用</t>
+  </si>
+  <si>
+    <t>7. chr()</t>
+  </si>
+  <si>
+    <t>inverse of ord()</t>
+  </si>
+  <si>
+    <t>8. delattr(object, name)</t>
+  </si>
+  <si>
+    <t>setattr()对应的函数， 另外， 类中定义的__getattr__(self, item)函数和__getattribute__(self, item)函数的区别是，前者只有当item未在类中定义时才被调用，后者无论item是否存在都被调用，当获取对象属性时，后者先被调用，若产生AtrributeError异常，前者则被调用</t>
+  </si>
+  <si>
+    <t>9. divmod(a,b)</t>
+  </si>
+  <si>
+    <t>返回一个tuple， 分别是除数和余数</t>
+  </si>
+  <si>
+    <t>10. enumerate(iterable, start=0)</t>
+  </si>
+  <si>
+    <t>返回一个迭代器，该迭代器的元素由一个计数值和iterable的元素组成</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; seasons = ['Spring', 'Summer', 'Fall', 'Winter']
+&gt;&gt;&gt; list(enumerate(seasons))
+[(0, 'Spring'), (1, 'Summer'), (2, 'Fall'), (3, 'Winter')]
+&gt;&gt;&gt; list(enumerate(seasons, start=1))
+[(1, 'Spring'), (2, 'Summer'), (3, 'Fall'), (4, 'Winter')]
+</t>
+  </si>
+  <si>
+    <t>11. eval(expression, globals=None, locals=None)</t>
+  </si>
+  <si>
+    <t>执行表达式expressiong, 并返回其结果，该表达式为字符串。 两个参数都必须为字典</t>
+  </si>
+  <si>
+    <t>12. exec(object[, globals[, locals]])</t>
+  </si>
+  <si>
+    <t>和eval类似，但是只返回None，也就是说只执行表达式，但是不返回结果</t>
+  </si>
+  <si>
+    <t>13. filter(function, iterable)</t>
+  </si>
+  <si>
+    <t>和(item for item in iterable if function(item))等价，itertools.filterfalse()为其互补函数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14. frozenset([iterable]) </t>
+  </si>
+  <si>
+    <t>生成不可变集合</t>
+  </si>
+  <si>
+    <t>使用openpyxl查看和更改excel文件</t>
+  </si>
+  <si>
+    <t>from openpyxl import load_workbook
+workbook = load_workbook(filename="C:\\dtn\\XX.xlsx")  打开excel文件</t>
+  </si>
+  <si>
+    <t>或者</t>
+  </si>
+  <si>
+    <t>from openpyxl import Workbook
+workbook = Workbook() 创建excel文件</t>
+  </si>
+  <si>
+    <t>workbook.sheetnames  所有worksheet名字列表
+workbook.active 返回当前默认选中的worksheet
+workbook.get_sheet_by_name(name) 根据名称获得worksheet
+workbook.remove(worksheet) 删除worksheet对象，不是名称
+workbook.save(filename) 保存到文件，有写操作记得保存
+workbook.create_sheet() 新建worksheet
+worksheet = workbook['Sheet1'] 通过名称获取worksheet
+worksheet的属性
+rows 返回所有有效数据行，有数据时为generator，无数据时为tuple
+columns 返回所有有效数据列，类型同rows
+max_column 最大列
+max_row:有效数据最大行
+min_column:有效数据最小列,起始为1
+min_row:有效数据最大行,起始为1
+values:返回所有单元格的值的列表,类型为tuple
+title:WorkSheet的名称</t>
+  </si>
+  <si>
+    <t># 1. load module
+from openpyxl import load_workbook
+dest_filename = 'test.xlsx'
+# 2. load Workbook from existed file
+wb=load_workbook(dest_filename)
+# 3. get a WorkSheet
+ws=wb['Sheet1']
+# 4. modify data
+ws['A10']=100
+ws.cell(row=1,column=1,value=100)
+# 5. read data
+# read data
+for row in ws.rows: # 返回的row是一个tuple对象
+    for cell in row:
+        print 'row: %s  column: %s  value: %s' % (cell.row,cell.column,cell.value)
+# 6. save Workbook to file
+wb.save(dest_filename)</t>
+  </si>
+  <si>
+    <t>cell(coordinate=None, row=None, column=None, value=None): 获取指定单元格或设置单元格的值,具体使用在cell下面介绍
+# 使用WorkSheet的Cell方法
+c1=ws.cell('A1')
+c2=ws.cell(row=1,column=1) # 获取A1单元格
+# 通过坐标获取Cell
+c3=ws['A1']
+# 获取多个
+c3=ws['A1:E5'] // 返回多行数据,类型为tuple
+# 直接使用WorkSheet的cell方法设置
+ws.cell(row=1,column=1,value=10)
+# 设置Cell对象value属性
+c1=ws.cell('A1')
+c1.value=100
+column:所在列,起始为1
+row:所在行,起始为1
+coordinate: 所在坐标,如'A1'
+parent: 所属的WorkSheet
+value: 单元格的值
+offset(row=0, column=0): 偏移</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decode的作用是将其他编码的字符串转换成unicode编码，如str1.decode('gb2312')，表示将gb2312编码的字符串str1转换成unicode编码。 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">encode的作用是将unicode编码转换成其他编码的字符串，如str2.encode('gb2312')，表示将unicode编码的字符串str2转换成gb2312编码。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     # bytes object
+      b = b"example"
+      # str object
+      s = "example"
+      # str to bytes
+      bytes(s, encoding = "utf8")
+      # bytes to str
+      str(b, encoding = "utf-8")
+      # an alternative method
+      # str to bytes
+      str.encode(s)
+      # bytes to str
+      bytes.decode(b)</t>
   </si>
 </sst>
 </file>
@@ -818,60 +1200,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.7109375" customWidth="1"/>
-    <col min="3" max="3" width="83.5703125" customWidth="1"/>
+    <col min="1" max="1" width="79.6640625" customWidth="1"/>
+    <col min="3" max="3" width="83.5546875" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -884,7 +1266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -897,7 +1279,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -910,7 +1292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -923,7 +1305,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -936,7 +1318,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -949,7 +1331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -962,7 +1344,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -975,7 +1357,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -988,7 +1370,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1001,7 +1383,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1014,7 +1396,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
@@ -1027,7 +1409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -1040,7 +1422,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -1053,7 +1435,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
@@ -1066,7 +1448,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
@@ -1079,7 +1461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
@@ -1092,7 +1474,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
@@ -1105,7 +1487,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
@@ -1118,7 +1500,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -1131,7 +1513,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
@@ -1144,7 +1526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
@@ -1157,72 +1539,72 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="144" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="228" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>72</v>
       </c>
@@ -1230,82 +1612,523 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="61" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="C61" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C61" s="5" t="s">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="65" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="69" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="195" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C69" s="5" t="s">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="71" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A71" s="5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C71" s="5" t="s">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="5" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A90" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A91" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="64.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="124.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E4:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="88.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Python_Library.xlsx
+++ b/Python_Library.xlsx
@@ -4,23 +4,29 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ctypes" sheetId="1" r:id="rId1"/>
     <sheet name="Built-in Functions" sheetId="2" r:id="rId2"/>
-    <sheet name="openpyxl" sheetId="3" r:id="rId3"/>
-    <sheet name="html" sheetId="4" r:id="rId4"/>
-    <sheet name="CSS" sheetId="5" r:id="rId5"/>
-    <sheet name="JS" sheetId="6" r:id="rId6"/>
-    <sheet name="encoding" sheetId="7" r:id="rId7"/>
+    <sheet name="string" sheetId="10" r:id="rId3"/>
+    <sheet name="Data Structure and Algorithm" sheetId="12" r:id="rId4"/>
+    <sheet name="openpyxl" sheetId="3" r:id="rId5"/>
+    <sheet name="html" sheetId="4" r:id="rId6"/>
+    <sheet name="CSS" sheetId="5" r:id="rId7"/>
+    <sheet name="JS" sheetId="6" r:id="rId8"/>
+    <sheet name="encoding" sheetId="7" r:id="rId9"/>
+    <sheet name="Moduel and Packages" sheetId="8" r:id="rId10"/>
+    <sheet name="PHP" sheetId="11" r:id="rId11"/>
+    <sheet name="xlsxwriter" sheetId="9" r:id="rId12"/>
+    <sheet name="numpy &amp; pandas" sheetId="13" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="310">
   <si>
     <t>1. 加载动态链接库： ctypes导出两种对象,cdll和windll，可以用于加载动态链接库。windll库采用stdcall调用函数，stdcall用cdecl调用函数。 在windows中导入动态链接库时可以像访问类属性那样，采用windll.XXX的方式，Windows会自动添加“.dll”后缀。</t>
   </si>
@@ -815,12 +821,1103 @@
       # bytes to str
       bytes.decode(b)</t>
   </si>
+  <si>
+    <t>1. 包中的__init__.py会在包中的模块被import之前首先被import</t>
+  </si>
+  <si>
+    <t>如果在__init__.py文件中写入如下代码：
+# graphics/formats/__init__.py
+from . import jpg
+from . import png
+import graphics.formats 就可以同时导入jpg和png，不需要再写
+import graphics.formats.jpg
+import graphics.formats.png</t>
+  </si>
+  <si>
+    <t>3. 可以在module中写__all__ = ['a', 'b']， 这样如果代码中有：
+from module_name import *时， 只有a和b两项被imported</t>
+  </si>
+  <si>
+    <t>2. 对于包结构：
+graphics/
+        __init__.py
+        primitive/
+              __init__.py
+              line.py
+              fill.py
+              text.py
+       formats/
+              __init__.py
+              png.py
+              jpg.py</t>
+  </si>
+  <si>
+    <t>4. 对于上述包结构， 可以在模块jpg.py中写如下代码：
+from . Import png  #引用png模块
+from ..primitive import fill   #引用fill模块</t>
+  </si>
+  <si>
+    <t>5. 可以在包formats的__init__.py中写如下代码：
+ from .png import XX
+from  .jpg import YY</t>
+  </si>
+  <si>
+    <t>这样formats包的使用者可以直接通过from formats import XX, YY引入这两项</t>
+  </si>
+  <si>
+    <t>6. "."指当前包，“..”为上一级包，当前包中的模块为“.X”，不能直接“import .X”， 但是可以"from .X import xx"</t>
+  </si>
+  <si>
+    <t>使用 "from ..Y import yy" 可以导入上次层包中Y子包里的yy</t>
+  </si>
+  <si>
+    <t>import xlsxwriter as xw
+wb = xw.Workbook("C:\\dtn\\Python\\study\\123.xlsx")
+ws = wb.add_worksheet(name="test")
+bold = wb.add_format({'bold':True})
+ws.write_rich_string('A1','This is ', bold, 'a test')</t>
+  </si>
+  <si>
+    <t>15. Python中对象的赋值都是进行对象引用（内存地址）传递</t>
+  </si>
+  <si>
+    <t>使用copy.copy()，可以进行对象的浅拷贝，它复制了对象，但对于对象中的元素，依然使用原始的引用.</t>
+  </si>
+  <si>
+    <t>如果需要复制一个容器对象，以及它里面的所有元素（包含元素的子元素），可以使用copy.deepcopy()进行深拷贝</t>
+  </si>
+  <si>
+    <t>对于非容器类型（如数字、字符串、和其他'原子'类型的对象）没有被拷贝一说</t>
+  </si>
+  <si>
+    <t>如果元祖变量只包含原子类型对象，则不能深拷贝</t>
+  </si>
+  <si>
+    <t>切片操作属于浅拷贝</t>
+  </si>
+  <si>
+    <t>7. __main__模块如果要导入库，必须使用绝对路径，不能使用相对路径</t>
+  </si>
+  <si>
+    <t>16. input([prompt])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; s = input('--&gt; ')  
+--&gt; Monty Python's Flying Circus
+&gt;&gt;&gt; s  
+"Monty Python's Flying Circus"
+</t>
+  </si>
+  <si>
+    <t>17. isinstance(object, classinfo)</t>
+  </si>
+  <si>
+    <t>当object是classinfo类型时， 返回True</t>
+  </si>
+  <si>
+    <t>18. issubclass(class, classinfo)</t>
+  </si>
+  <si>
+    <t>当class是classinfo子类时， 返回True</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19. iter(object[, sentinel]) </t>
+  </si>
+  <si>
+    <r>
+      <t>如果sentinel没有给，则object必须提供__iter__()或者__getitem__()，否则会报TypeError错误； 如果sentinel提供了，则object必须是可调用的（支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__call__()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ），直到返回sentinel后，报StopIteration异常</t>
+    </r>
+  </si>
+  <si>
+    <t>20. map(function, iterable)</t>
+  </si>
+  <si>
+    <t>这个不用再解释了吧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21. max(arg1, arg2, *args[, key]) </t>
+  </si>
+  <si>
+    <t>key可以指定排序规则， 可以用lamda函数， 也可以通过operator.itemgetter指定</t>
+  </si>
+  <si>
+    <t>22. pow(x,y,z)</t>
+  </si>
+  <si>
+    <t>x to the power of y , mod z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23. property(fget=None, fset=None, fdel=None, doc=None) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">class C:
+    def __init__(self):
+        self._x = None
+    def getx(self):
+        return self._x
+    def setx(self, value):
+        self._x = value
+    def delx(self):
+        del self._x
+    x = property(getx, setx, delx, "I'm the 'x' property.")
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is an instance of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>c.x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will invoke the getter, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>c.x = value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will invoke the setter and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>del c.x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the deleter.</t>
+    </r>
+  </si>
+  <si>
+    <t>24. reversed(seq)</t>
+  </si>
+  <si>
+    <t>Return a reverse iterator</t>
+  </si>
+  <si>
+    <t>25. getattr(obj, name)</t>
+  </si>
+  <si>
+    <t>getattr(x, 'foobar')  &lt;==&gt;  x.foobar</t>
+  </si>
+  <si>
+    <t>__getattr__ 当找不到属性时会被调用</t>
+  </si>
+  <si>
+    <t>__getattribute__ 找任何属性之前都会被调用，不管该属性是否存在</t>
+  </si>
+  <si>
+    <t>26. setattr(obj, name, value)</t>
+  </si>
+  <si>
+    <t>setattr(x, 'foobar', 123) &lt;==&gt; x.foobar=123</t>
+  </si>
+  <si>
+    <t>27. slice(start, stop, step)</t>
+  </si>
+  <si>
+    <t>切片命名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28. sorted(iterable, *, key=None, reverse=False) </t>
+  </si>
+  <si>
+    <t>排序， key指定用于排序的element， 可以使用lambda函数或operator.itemgetter或者operator.attrgetter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29. vars([object]) </t>
+  </si>
+  <si>
+    <t>Return the __dict__ attribute for a module, class, instance, or any other object with a __dict__ attribute</t>
+  </si>
+  <si>
+    <t>30. zip(*iterables)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;&gt; x = [1, 2, 3]
+&gt;&gt;&gt; y = [4, 5, 6]
+&gt;&gt;&gt; zipped = zip(x, y)
+&gt;&gt;&gt; list(zipped)
+[(1, 4), (2, 5), (3, 6)]
+&gt;&gt;&gt; x2, y2 = zip(*zip(x, y))
+&gt;&gt;&gt; x == list(x2) and y == list(y2)
+True
+</t>
+  </si>
+  <si>
+    <t>1. str.format(*args, **kwargs) 会对kwargs 进行copy，因此不能直接传dict，而必须传入*dict</t>
+  </si>
+  <si>
+    <t>str.format_map(mapping) 可以直接传入dict，也可以传入dict的子类</t>
+  </si>
+  <si>
+    <r>
+      <t>&gt;&gt;&gt; class Default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dict)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:
+...     def </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>__missing__</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(self, key):
+...         return key
+...
+&gt;&gt;&gt; '{name} was born in {country}'.format_map(Default(name='Guido'))
+'Guido was born in country'
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2. str.lstrip([chars]) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">str.translate(table) </t>
+  </si>
+  <si>
+    <t>3. static str.maketrans(x[, y[, z]])  返回字符转换table， x和y必须是长度相等的字符串，z为None的替换字符</t>
+  </si>
+  <si>
+    <t>4. str.partition(sep)</t>
+  </si>
+  <si>
+    <t>获取网页： $file = file_get_contents("http://www.sina.com")</t>
+  </si>
+  <si>
+    <t>正则匹配：preg_match($reg, $html, $mat)， $mat[0]保存全部正则表达式匹配结果， $mat[1]保存第一个分组匹配结果，以此类推</t>
+  </si>
+  <si>
+    <t>preg_match_all($reg, $html, $mat)， $mat[0][0]保存全部正则表达式匹配第一个结果，$mat[0][1]保存全部正则表达式匹配第二个结果， $mat[1][0]保存第一个分组匹配第一个结果，$mat[1][1]保存第一个分组匹配第二个结果，以此类推</t>
+  </si>
+  <si>
+    <t>preg_replace:
+&lt;?php
+$string = 'April 15, 2003';
+$pattern = '/(\w+) (\d+), (\d+)/i';
+$replacement = '${1}1,$3';
+echo preg_replace($pattern, $replacement, $string);
+?&gt;
+以上例程会输出：
+April1,2003</t>
+  </si>
+  <si>
+    <t>将字符串存入文件：file_put_contents($file, $data, FILE_APPEND)</t>
+  </si>
+  <si>
+    <t>from collections import deque
+a = deque(maxlen = 5)
+a.append(1)
+a.append(2)
+…
+a.append(5)
+a.append(6)
+a = [2,3,4,5,6]</t>
+  </si>
+  <si>
+    <t>import heapq
+heapq.nsmallest(n, list, key)
+heapq.nlargest(n, list, key)
+heapq.heapify(list)</t>
+  </si>
+  <si>
+    <t>heapq.heappush(queue, [-priority, index, item])
+heapq.heappop(queue)[-1]</t>
+  </si>
+  <si>
+    <t>DefaultDict 可以自动初始化每一个表项，OrderedDict 始终保持表项创建顺序</t>
+  </si>
+  <si>
+    <t>1. deque 可以指定maxlen控制列表长度，新添加的会挤掉最旧的</t>
+  </si>
+  <si>
+    <t>2. heapq可以从list中找到最小或者最大的几个数，或者将数组中最小的数放到最前面</t>
+  </si>
+  <si>
+    <t>3. 利用heapq的heappush 和 heappop可以生成优先级队列</t>
+  </si>
+  <si>
+    <t>4. DefaultDict 和  OrderedDict</t>
+  </si>
+  <si>
+    <t>5. 利用zip 和 max/min 对字典值进行计算。</t>
+  </si>
+  <si>
+    <t>prices = {'apple': 100, 'peal': 150, 'orange':200}
+min(zip(prices.values(), prices.keys()))   # Returns (100, 'apple')
+min(prices, key=lambda k:prices[k])   # Returns 'apple'</t>
+  </si>
+  <si>
+    <t>6. 字典的键值(或者键值对)支持集合操作</t>
+  </si>
+  <si>
+    <t>a = {'x':1, 'y':2, 'z':3}
+b = {'w':10, 'x':20, 'y':2}
+a.keys() &amp; b.keys()   # find keys in common, return {'x', 'y'}
+a.keys() - b.keys()  # find keys in a but not in b, return {'z'}
+a.items() &amp; b.items()  # find (key, value) pairs in common, return {('y':2)}</t>
+  </si>
+  <si>
+    <t>7. 可以使用set去除数据中重复的数据</t>
+  </si>
+  <si>
+    <t>def dedupe(items, key=None):
+        seen = set()
+        for item in items:
+                val = item if key is None else key(item)
+                if val not in seen:
+                          yield item
+                          seen.add(val)</t>
+  </si>
+  <si>
+    <t>8. 用slice 命名切片</t>
+  </si>
+  <si>
+    <t>items = [0, 1, 2, 3, 4, 5, 6]
+a = slice(2, 4)
+items[a]</t>
+  </si>
+  <si>
+    <t>9. 用Counter计算列表中元素出现次数</t>
+  </si>
+  <si>
+    <t>from collections import Counter
+a = ['a', 'b', 'c', 'd', 'e', 'f', 'f', 'a', 'e']
+b = ['a', 'c', 'd']
+w = Counter(a)
+w.most_common(3)
+w.update(b)
+Counter(a) + Counter(b)
+Counter(a) - Counter(b)</t>
+  </si>
+  <si>
+    <t>10. 使用itemgetter对字典进行排序</t>
+  </si>
+  <si>
+    <t>11. attrgetter， 与itemgetter 类似</t>
+  </si>
+  <si>
+    <t>12. filter 和 compress，filter向第一个参数传入第二个参数的每一个元素，并根据返回值是否是True输入元素， compress根据第二个参数中的每个元素是True还是False输出第一个参数中的对应元素</t>
+  </si>
+  <si>
+    <t>b = [1,2,3,4,5,6,7]
+def func(v):
+    if v&gt;4:
+        return True;
+    else:
+        return False;
+c = list(filter(func, b))
+c
+[5, 6, 7]
+from itertools import compress
+b=[1, 2, 3, 4, 5, 6, 7]
+c = [n&gt;3 for n in b]
+d = list(compress(b,c))</t>
+  </si>
+  <si>
+    <t>a = {'x': 1, 'z': 3 }
+b = {'y': 2, 'z': 4 }
+from collections import ChainMap
+c = ChainMap(a,b)
+print(c['x']) # Outputs 1 (from a)
+print(c['y']) # Outputs 2 (from b)
+print(c['z']) # Outputs 3 (from a)</t>
+  </si>
+  <si>
+    <t>13. ChainMap 接受多个字典并将它们在逻辑上变为一个字典。然后，这些字典并
+不是真的合并在一起了，ChainMap 类只是在内部创建了一个容纳这些字典的列表并重
+新定义了一些常见的字典操作来遍历这个列表.  如果出现重复键，那么第一次出现的映射值会被返回</t>
+  </si>
+  <si>
+    <t>14. 使用re.split, re.search, re.match, re.findall 进行字符串正则表达式操作</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C:\\dtn\\Python\\Python36-32\\python.exe "C:\\dtn\\JetBrains\\PyCharm 2018.1.3\\helpers\\pydev\\pydevconsole.py" 62018 62019'
+b = re.search(r'(dtn.*?Py).*(o.*?32)', a)    # </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.*?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>表示采用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非贪婪模式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b.group(0)
+'dtn\\Python\\Python36-32'
+b.group(1)
+'dtn\\Py'
+b.group(2)
+'on36-32'</t>
+    </r>
+  </si>
+  <si>
+    <t>15.   str.startswith和 str.endswith()</t>
+  </si>
+  <si>
+    <t>如果只有一个参数，可以是一个字符串， 若有多个参数，则 应当为一个元组，不能将多个字符串直接传入</t>
+  </si>
+  <si>
+    <t>16. re.sub可以有多种用法，除了可以直接指定替换模式以外，还可以指定一个函数，用于进行复杂的字符串替换， 该函数必须接受一个match对象</t>
+  </si>
+  <si>
+    <t>text = 'UPPER PYTHON, lower python, Mixed Python'
+def matchcase(m):
+    def replace(w):
+        t = w.group()
+        print(t)
+        return 'dtn'
+    return replace
+re.sub('python', matchcase('123'), text, flags=re.IGNORECASE)
+PYTHON
+python
+Python
+'UPPER dtn, lower dtn, Mixed dtn'
+&gt;&gt;&gt; text = 'Today is 11/27/2012. PyCon starts 3/13/2013.'
+&gt;&gt;&gt; import re
+&gt;&gt;&gt; re.sub(r'(\d+)/(\d+)/(\d+)', r'\3-\1-\2', text)
+'Today is 2012-11-27. PyCon starts 2013-3-13.'</t>
+  </si>
+  <si>
+    <t>17.  str.strip()可以用于去除字符串两边的字符，中间的字符只能用replace或者re.sub去除</t>
+  </si>
+  <si>
+    <t>a = '------dtn----====wjy=======-------'
+a.strip('-=')
+'dtn----====wjy'</t>
+  </si>
+  <si>
+    <t>18. dict.fromkeys(iterable, value) 可以用于构建字典</t>
+  </si>
+  <si>
+    <t>dict.fromkeys(range(10), 20)
+{0: 20, 1: 20, 2: 20, 3: 20, 4: 20, 5: 20, 6: 20, 7: 20, 8: 20, 9: 20}</t>
+  </si>
+  <si>
+    <t>19. 通过str.maketrans和str.translate 对字符串进行筛查和替换</t>
+  </si>
+  <si>
+    <t>inst = 'abcde'
+outt = '12345'
+str.maketrans(inst, outt)
+{97: 49, 98: 50, 99: 51, 100: 52, 101: 53}
+d = str.maketrans(inst, outt)
+a
+'abcde'
+a.translate(d)
+'12345'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20. 元类就是类的类，可以用来控制类的生成过程。元类提供四个非常重要的函数，
+-  __prepare__(cls,name,base, attr)
+-  __new__(cls,name,base,attr)
+-  __init__(self, name, base, attr)
+-  __call__(self, *args, **kwargs)
+它们的执行顺序同上。Cls是元类自己， name是生成的对象类名(字符串)，base为对象类的父类列表，attr为对象类的字典， self为对象类（对象）。__call__函数在对象类后面加括号时被调用
+</t>
+  </si>
+  <si>
+    <t>class dtn(type):
+    def __new__(cls, name, bases, dics):
+        print(cls, name, bases, dics)
+        return super().__new__(cls, name, bases, dics)
+    def __init__(self, name, args, kwargs):
+        print(self, name, args, kwargs)
+        return super().__init__(name, args, kwargs)
+    def __call__(self, *args, **kwargs):
+        print(self, args, kwargs)
+        self.x = kwargs['c']
+class dxh(object, metaclass=dtn):
+    pass
+if __name__ == '__main__':
+    dan = dxh(1,2,c=3)
+    print(dxh.x)</t>
+  </si>
+  <si>
+    <t>from operator import itemgetter
+rows = [{'name':'dtn', 'age':35}, {'name':'wjy', 'age':34}, {'name':'dxh', 'age':6}]
+sorted(rows, key=itemgetter('age'))
+min(rows, key=itemgetter('age'))</t>
+  </si>
+  <si>
+    <t>1.  import numpy as np
+array = np.array([[1,2,3], [4,5,6]])
+array.ndim  #维度
+array.shape  #行数和列数
+array.size  #元素个数</t>
+  </si>
+  <si>
+    <t>a = np.array([1,2,3], dtype=np.int32)
+print(a.dtype)</t>
+  </si>
+  <si>
+    <t>2. 可以指定array的数据类型dtype，可以是np.int, np.int32, np.float, np.float32等</t>
+  </si>
+  <si>
+    <t>3.       a =  np.zeros((3,4))  全零矩阵
+a = np.ones((3,4),dtype = np.int)  全1矩阵
+a = np.empty((3,4))  空矩阵, 无限小
+a = np.arange(10, 20, 2)  行矩阵， 10到19以2为步长插值
+a = np.arange(12).reshape((3,4))  零到11以1为步长插值并重新排列为3行4列的矩阵
+a = np.linsapce(1, 10, 20).reshape((5,4))  从1到20进行20等分并重新排列为5行4列的矩阵</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. a = np.arange(4)
+    b = np.arange(5,9)
+    a+b,  a-b,  a*b,  a/b   全部都是对应元素的加减乘除，不是矩阵运算
+   c = b.reshape((4,1))
+   np.dot(a,c)   矩阵运算
+   a = np.random.random((4,4))
+   a&gt;0.5   比较a中的每一个元素是否大于0.5， 返回True或者False的矩阵
+    np.sum(a)  //所有元素之和
+    np.max(a)  //所有元素中最大值
+    np.min(a)  //所有元素中最小值
+    np.sum(a, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>axis=0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)  //各列之和
+    np.max(a, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>axis=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)  //各行的最大值</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">获取网页：
+&lt;?php
+$ch = curl_init();
+curl_setopt($ch, CURLOPT_URL, "http://www.baidu.com");
+curl_exec($ch);
+curl_close($ch);
+?&gt;
+</t>
+  </si>
+  <si>
+    <t>CURLOPT_HEADER, true/false  : 是否输出头信息
+CURLOPT_TIMEOUT, 30  : 最大延时时间
+CURLOPT_FOLLOWLOCATION, true/false 
+CURLOPT_SSL_VERIFYPEER, true/false  
+CURLOPT_RETURNTRANSFER, true/false: 如果设置为false的话，表示直接输出到页面，不会在curl_exec执行的时候返回内容
+CURLOPT_PROXY, "127.0.0.1:8888"
+CURLOPT_USERAGENT, "Mozilla/4.0 ..."
+CURLOPT_POST, true
+CURLOPT_POSTFIELDS, "phong=137xxxxxx&amp;name=xxx"
+CURLOPT_COOKIE, "xxxxxx"
+CURLOPT_COOKIEFILE, $file_path  : 从filepath中获取cookie信息用于提交
+CURLOPT_COOKIEJAR, $file_path : 将请求返回的cookie保存在file_path文件中</t>
+  </si>
+  <si>
+    <t>fopen("123.txt", "r+")
+urlencode("xxxxx")
+realpath("123.txt")</t>
+  </si>
+  <si>
+    <t>4. A *B是矩阵中各元素做乘法运算， A@B是做矩阵乘法运算（也可以写为A.dot(B)）</t>
+  </si>
+  <si>
+    <t>5. *=, += … 可以用于修改原矩阵， 可以将整形转换为浮点型， 但是不能将浮点型变为整形</t>
+  </si>
+  <si>
+    <t>create database noxue;
+use noxue;
+CREATE TABLE 'Testing' ('ID' int(11) DEFAULT NULL);</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; def f(x,y):
+...     return 10*x+y
+...
+&gt;&gt;&gt; b = np.fromfunction(f,(5,4),dtype=int)
+&gt;&gt;&gt; b
+array([[ 0,  1,  2,  3],
+       [10, 11, 12, 13],
+       [20, 21, 22, 23],
+       [30, 31, 32, 33],
+       [40, 41, 42, 43]])</t>
+  </si>
+  <si>
+    <t>7. fromfunction 函数获取行列值，传入f函数，并用返回值创建矩阵</t>
+  </si>
+  <si>
+    <t>8. 可以用a.flat循环矩阵的每一个元素</t>
+  </si>
+  <si>
+    <t>for element in b.flat:
+...     print(element)</t>
+  </si>
+  <si>
+    <t>9.    a.ravel()  : 返回行向量
+       a.reshape(x,y) : 返回x行，y列矩阵
+       a.T ：返回转置矩阵</t>
+  </si>
+  <si>
+    <t>6. np.exp(A),  np.sqrt(A), np.add(B, C), np.floor(A)等等通用函数</t>
+  </si>
+  <si>
+    <t>10. np.vstack((A, B)) : 将两个矩阵竖直堆叠
+    np.hstack((A, B)) :将两个矩阵横向堆叠</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; a = np.floor(10*np.random.random((2,2)))
+&gt;&gt;&gt; a
+array([[ 8.,  8.],
+       [ 0.,  0.]])
+&gt;&gt;&gt; b = np.floor(10*np.random.random((2,2)))
+&gt;&gt;&gt; b
+array([[ 1.,  8.],
+       [ 0.,  4.]])
+&gt;&gt;&gt; np.vstack((a,b))
+array([[ 8.,  8.],
+       [ 0.,  0.],
+       [ 1.,  8.],
+       [ 0.,  4.]])
+&gt;&gt;&gt; np.hstack((a,b))
+array([[ 8.,  8.,  1.,  8.],
+       [ 0.,  0.,  0.,  4.]])</t>
+  </si>
+  <si>
+    <t>11.  newaxis 可以将向量转为两维数组</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; a = np.array([4.,2.])
+&gt;&gt;&gt; a[:,newaxis]               # this allows to have a 2D columns vector
+array([[ 4.],
+              [ 2.]])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.  np.r_[] :可以创建行向量，并且可以使用:进行数值迭代
+      np.c_[] : 可以创建列向量，并且可以使用:进行数值迭代  </t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; np.r_[1:4,0,4]
+array([1, 2, 3, 0, 4])
+np.c_[1:5]
+array([[1],
+       [2],
+       [3],
+       [4]])</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; a = np.floor(10*np.random.random((2,12)))
+&gt;&gt;&gt; a
+array([[ 9.,  5.,  6.,  3.,  6.,  8.,  0.,  7.,  9.,  7.,  2.,  7.],
+       [ 1.,  4.,  9.,  2.,  2.,  1.,  0.,  6.,  2.,  2.,  4.,  0.]])
+&gt;&gt;&gt; np.hsplit(a,3)   # Split a into 3
+[array([[ 9.,  5.,  6.,  3.],
+       [ 1.,  4.,  9.,  2.]]), array([[ 6.,  8.,  0.,  7.],
+       [ 2.,  1.,  0.,  6.]]), array([[ 9.,  7.,  2.,  7.],
+       [ 2.,  2.,  4.,  0.]])]
+&gt;&gt;&gt; np.hsplit(a,(3,4))   # Split a after the third and the fourth column
+[array([[ 9.,  5.,  6.],
+       [ 1.,  4.,  9.]]), array([[ 3.],
+       [ 2.]]), array([[ 6.,  8.,  0.,  7.,  9.,  7.,  2.,  7.],
+       [ 2.,  1.,  0.,  6.,  2.,  2.,  4.,  0.]])]</t>
+  </si>
+  <si>
+    <t>13.  np.hsplit 和np.vsplit可以拆分矩阵
+np.hsplit(A, 3)  :将矩阵横向拆分成3块
+np.hsplit(A, (3,4)) : 在第三和第四列之前拆分矩阵</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; s = a[ : , 1:3]     # spaces added for clarity; could also be written "s = a[:,1:3]"
+&gt;&gt;&gt; s[:] = 10           # s[:] is a view of s. Note the difference between s=10 and s[:]=10
+&gt;&gt;&gt; a
+array([[   0,   10,   10,    3],
+       [1234,   10,   10,    7],
+       [   8,   10,   10,   11]])</t>
+  </si>
+  <si>
+    <t>14.   赋值操作和函数传参不进行拷贝， 而是直接引用， 即两者指向不同内存。
+A.view()或者A[:,1:3]返回一个新对象，但是数据仍然是直接引用，新的对象和原对象不指向同一内存，但是新对象和原对象的数据指向同一地址，对新对象的数据进行更改也会更改原对象</t>
+  </si>
+  <si>
+    <t>15. A.copy()会进行深度拷贝，为了节省内存，当对原矩阵进行数据切片，而且原矩阵不再需要时，应主动进行深度拷贝</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; d = a.copy()                          # a new array object with new data is created
+&gt;&gt;&gt; d is a
+False
+&gt;&gt;&gt; d.base is a                           # d doesn't share anything with a
+False
+&gt;&gt;&gt; d[0,0] = 9999
+&gt;&gt;&gt; a
+array([[   0,   10,   10,    3],
+       [1234,   10,   10,    7],
+       [   8,   10,   10,   11]])
+&gt;&gt;&gt; a = np.arange(int(1e8))
+&gt;&gt;&gt; b = a[:100].copy()
+&gt;&gt;&gt; del a  # the memory of ``a`` can be released.</t>
+  </si>
+  <si>
+    <t>16. 常用函数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Array Creation
+    arange, array, copy, empty, empty_like, eye, fromfile, fromfunction, identity, linspace, logspace, mgrid, ogrid, ones, ones_like, r, zeros, zeros_like
+Conversions
+    ndarray.astype, atleast_1d, atleast_2d, atleast_3d, mat
+Manipulations
+    array_split, column_stack, concatenate, diagonal, dsplit, dstack, hsplit, hstack, ndarray.item, newaxis, ravel, repeat, reshape, resize, squeeze, swapaxes, take, transpose, vsplit, vstack
+Questions
+    all, any, nonzero, where
+Ordering
+    argmax, argmin, argsort, max, min, ptp, searchsorted, sort
+Operations
+    choose, compress, cumprod, cumsum, inner, ndarray.fill, imag, prod, put, putmask, real, sum
+Basic Statistics
+    cov, mean, std, var
+Basic Linear Algebra
+    cross, dot, outer, linalg.svd, vdot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">show databases;
+drop database noxue;
+drop table users;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insert into table_name (field1, field2, .. , fieldn) values (value1, value2, …, value_n), (value11, value12,…, value1n) ,…, (value_n1, value_n2, … , value_nn); </t>
+  </si>
+  <si>
+    <t>truncate table table_name;   清空表</t>
+  </si>
+  <si>
+    <t>delete from table_name where id=1</t>
+  </si>
+  <si>
+    <t>select * from table_name;
+select * from table_name where id=1;
+select id, name from table_name oder by id asc/desc;
+select * from table_name limit 0, 10;
+select count(*) from table_name;</t>
+  </si>
+  <si>
+    <t>update table_name set field1=value1, filed=value2 where id=1</t>
+  </si>
+  <si>
+    <r>
+      <t>php 连接数据库
+&lt;?php
+     $dns = "mysql:host=xxxxx;dbname=yyyy";
+     $db = new  PDO($dns, "root", "123456");
+     $count = $db-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('insert into table_name (ID, username) values (5, "fap")');
+     $res = $db-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>query</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('select * from table_name');
+     foreach($res as $row){
+          print_r($row);
+     }</t>
+    </r>
+  </si>
+  <si>
+    <t>header('location: http://www.baidu.com')   : 跳转到目标网址</t>
+  </si>
+  <si>
+    <t>require_once "./xxx.php";</t>
+  </si>
+  <si>
+    <t>在html中嵌入php代码:
+&lt;div&gt;  
+  &lt;p&gt; &lt;?=$xxx['yyy']?&gt; &lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>在html中嵌入php代码并且传参:
+&lt;div&gt;  
+  &lt;p&gt; 
+      &lt;?php
+            echo  substr($row['xxx'], 0, 20);
+            echo "… &lt;a href='./yyy.php?id=".row['zzz']." '&gt;详细内容 &lt;/a&gt;";
+      ?&gt; 
+  &lt;/p&gt;
+&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>substr(str, start, len) : 截取字符串
+mb_substr :多字符截取字符串，当被截取的字符串是中文时这种方式更安全</t>
+  </si>
+  <si>
+    <t>db-&gt;exec('set names utf8');   设置数据库字符编码类型</t>
+  </si>
+  <si>
+    <t>为了防止注入攻击， 可以采用占位符和预处理对SQL语句进行预先处理：
+$sql = 'insert into table_name (field_1) values (:place_holder1, :place_holder2)';
+$stmt = $db-&gt;prepare($sql);
+$stmt-&gt;bindParam(':place_holder1', $value1);
+$stmt-&gt;bindParam(':place_holder2', $value2);
+$count = $stmt-&gt;execute();</t>
+  </si>
+  <si>
+    <t>$sql = 'select * from table_name where id=:id';
+$stmt = $db-&gt;prepare($sql);
+$stmt-&gt;bindParam(':id', $id);
+$stmt-&gt;execute();
+$res = $stmt-&gt;fetchAll();  //获取多条信息
+$res = $stmt-&gt;fetch(); //获取一条信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+$sql = 'insert into table_name (field_1) values (?, ?)';
+$stmt = $db-&gt;prepare($sql);
+$stmt-&gt;bindParam(1, $value1);
+$stmt-&gt;bindParam(2, $value2);
+$count = $stmt-&gt;execute();</t>
+  </si>
+  <si>
+    <t>$db-&gt;lastInsertId()</t>
+  </si>
+  <si>
+    <t>XSS攻击就是用户提交的js代码被执行:
+&lt;script&gt;location.href="https://www.baidu.com";&lt;/script&gt;
+解决办法，将&lt;替换为'&amp;lt;'，将&gt;替换为'&amp;gt;'：
+str_replace('&lt;', '&amp;lt;', $text);
+str_replace('&gt;', '&amp;gt;', $text);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -837,6 +1934,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -882,10 +2015,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -896,8 +2030,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1202,7 +2347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
@@ -1830,17 +2975,393 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.109375" customWidth="1"/>
+    <col min="1" max="1" width="55.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="83.44140625" customWidth="1"/>
+    <col min="2" max="2" width="56.88671875" customWidth="1"/>
+    <col min="3" max="3" width="64.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="144" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="73" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="79.44140625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="98.6640625" style="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A99"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="111.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -1998,12 +3519,443 @@
         <v>149</v>
       </c>
     </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A75" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A79" r:id="rId1" location="term-iterator" display="mk:@MSITStore:C:\dtn\Python\Python36-32\Doc\python363.chm::/glossary.html - term-iterator"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="106.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="70.5546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="134.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -2013,7 +3965,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="124.21875" customWidth="1"/>
+    <col min="1" max="1" width="124.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -2056,7 +4008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2076,7 +4028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2088,7 +4040,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2100,17 +4052,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E4:E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
+    <col min="1" max="1" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">

--- a/Python_Library.xlsx
+++ b/Python_Library.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="ctypes" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,16 @@
     <sheet name="encoding" sheetId="7" r:id="rId9"/>
     <sheet name="Moduel and Packages" sheetId="8" r:id="rId10"/>
     <sheet name="PHP" sheetId="11" r:id="rId11"/>
-    <sheet name="xlsxwriter" sheetId="9" r:id="rId12"/>
-    <sheet name="numpy &amp; pandas" sheetId="13" r:id="rId13"/>
+    <sheet name="PyQt5" sheetId="14" r:id="rId12"/>
+    <sheet name="xlsxwriter" sheetId="9" r:id="rId13"/>
+    <sheet name="numpy &amp; pandas" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="363">
   <si>
     <t>1. 加载动态链接库： ctypes导出两种对象,cdll和windll，可以用于加载动态链接库。windll库采用stdcall调用函数，stdcall用cdecl调用函数。 在windows中导入动态链接库时可以像访问类属性那样，采用windll.XXX的方式，Windows会自动添加“.dll”后缀。</t>
   </si>
@@ -1906,11 +1907,2099 @@
     <t>$db-&gt;lastInsertId()</t>
   </si>
   <si>
+    <t>1. 初始化QMainWindow类需要传入parent参数
+2. statusBar()可以获得状态栏， statusBar().showMessage("xxxxx", 5000) 在状态栏上显示字符串5秒
+3. app.setWindowIcon用于设置icon</t>
+  </si>
+  <si>
+    <t>4. QDesktopWidget().screenGeometry()可以获取屏幕大小，QMainWindow().geometry()可以获得当前窗口尺寸, QMainWindow().move(x,y)可以将窗口移到指定位置</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">import sys
+from PyQt5.QtWidgets import QMainWindow, QApplication
+from PyQt5.QtGui import QIcon
+class MainWindow(QMainWindow):
+    def __init__(self, parent=None):
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>super().__init__(parent)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        self.resize(400,200)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.status = self.statusBar()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.status.showMessage("12345",5000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        self.setWindowTitle("example")
+if __name__ == "__main__":
+    app = QApplication(sys.argv)
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>app.setWindowIcon(QIcon("./image/v/acfun.ico"))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    form = MainWindow()
+    form.show()
+    sys.exit(app.exec_())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from PyQt5.QtWidgets import QMainWindow, QApplication, QDesktopWidget
+import sys
+class Winform(QMainWindow):
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        self.setWindowTitle("example")
+        self.resize(500, 300)
+        self.center()
+    def center(self):
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> screen = QDesktopWidget().screenGeometry()
+        size = self.geometry()
+        self.move((screen.width()-size.width())/2, (screen.height()-size.height())/2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from PyQt5.QtWidgets import QApplication, QMainWindow, QWidget, QHBoxLayout, QPushButton
+from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PyQt5.QtCore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> import QObject, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pyqtSlot, pyqtSignal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+import sys
+class WinForm(QMainWindow):
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    a = pyqtSignal(int)
+    b = pyqtSignal([int], [str])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        self.setWindowTitle('Example')
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.a.connect(self.onA)
+        self.b[str].connect(self.onB)
+        self.a.emit(1)
+        self.b[str].emit("abc")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    @pyqtSlot(int)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    def onA(self,x):
+        print(x)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    @pyqtSlot(str)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    def onB(self, x):
+        print(x)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from PyQt5.QtWidgets import QApplication, QMainWindow, QWidget, QHBoxLayout, QPushButton
+import sys
+class WinForm(QMainWindow):
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        self.setWindowTitle('Example')
+        self.button1 = QPushButton('Close Window')
+        self.button1.clicked.connect(self.onButtonClick)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>layout = QHBoxLayout()
+        layout.addWidget(self.button1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> m_frame = QWidget()
+        m_frame.setLayout(layout)
+        self.setCentralWidget(m_frame)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    def onButtonClick(self):
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sender = self.sender()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        print(sender.text() )
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>qApp = QApplication.instance()
+        qApp.quit()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11. 使用geometry().x(), geometry().y(), geometry().width(), geometry().height()获取客户窗口的左上角坐标以及宽度和高度
+12. 使用frameGeometry().x(), frameGeometry().y(), frameGeometry().width(), frameGeometry().height()获取主窗口的左上角坐标以及宽度和高度
+13. QMainWindow().x()和QMainWindow().y()获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>主窗口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">左上角坐标， </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>但是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QMainWindow().width()和QMainWindow().height()获取的是客户窗口的宽度和高度
+14. QWidget.resize(width, height) //改变客户窗口大小
+        QWidget.resize(QSize)  //改变客户窗口大小
+        QWidget.size()  //获取客户窗口大小
+        QWidget.setFixedWidth(width), QWidget.setFixedheight(height), QWidget.setFixedSize(width, height) 固定客户窗口大小
+        QWidget.setGeometry(x, y, width, height)  //设置客户窗口大小和位置
+15. QWidget.frameGeometry() //获取主窗口的大小和位置
+       QWidget.move(x, y) //设置主窗口位置
+       QWidget.pos() //获取主窗口左上角坐标</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>import sys
+from PyQt5.QtWidgets import QWidget, QToolTip, QApplication
+from PyQt5.QtGui import</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> QFont, QIcon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+class Winform(QWidget):
+    def __init__(self):
+        super().__init__()
+        self.initUI()
+    def initUI(self):
+        self.setGeometry(200,200,400,400)
+        self.setWindowTitle('An Example of Setting Tool Tip')
+        self.setWindowIcon(QIcon('../image/se/360.ico'))
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.setToolTip('This is a &lt;b&gt; example &lt;/b&gt;')
+        QToolTip.setFont(QFont('SansSerif', 10))</t>
+    </r>
+  </si>
+  <si>
+    <t>6. 关闭主窗口可以采用Qapplication.instance().quit()
+7. QMainWindow().sender()获取信号对象
+8. 使用QHBoxLayout().addWidget(xx)向布局中增加对象（例如button）
+9. 使用Qwidget().setLayout(layout)向widget中增加布局，或者也可以在定义layout时采用layout = QHBoxLayout(QWidget)，这样就不需要再单独写Widget.setLayout(layout)
+10. 使用QMainWindow().setCentralWidget(widget)向主窗口中增加控件.</t>
+  </si>
+  <si>
+    <t>16. setToolTip()可用于设置气泡提示，参数支持富文本
+17. QToolTip.setFont()用于设置提示字体，以QFont对象为参数</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QWidget):
+    def __init__(self):
+        super().__init__()
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>label1 = QLabel(self)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        label1.setText("This is a text label")
+        label1.setAutoFillBackground(True)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>palette = self.palette()
+        palette.setColor(QPalette.WindowText, Qt.blue)
+        label1.setPalette(palette)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        label1.setAlignment(Qt.AlignCenter)
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vbox = QVBoxLayout()
+        vbox.addWidget(label1)
+        self.setLayout(vbox)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        self.setWindowTitle('Example')</t>
+    </r>
+  </si>
+  <si>
+    <t>21. Qlable可以将文本设置为链接标签，但是默认点击不会跳转，需要调用label.setOpenExternalLinks(True)才能使能该链接。也可以通过QLabel的信号linkActivated在槽函数中打开该链接，需要注意的是，如果使能了链接，则linkActivated信号就无法发送； 另外，使能链接以后打开链接使用的是默认系统浏览器， 但是可以在linkActivated的槽函数中引入webbrowser模块，并调用指定浏览器打开网页。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">label2 = QLabel(self)
+label2.setText("&lt;a href='http://192.168.30.146'&gt; Python GUI &lt;/a&gt;")
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>label2.setOpenExternalLinks(False)
+label2.linkActivated.connect(link_clicked)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+def link_clicked():
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> import webbrowser
+        b_path = "C:\\Program Files\\Mozilla Firefox\\firefox.exe"
+        webbrowser.register('firefox', None, webbrowser.BackgroundBrowser(b_path))
+        webbrowser.get('firefox').open('http://192.168.30.146')</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        print('clicked')</t>
+    </r>
+  </si>
+  <si>
+    <t>label3 = QLabel(self)
+label3.setAlignment(Qt.AlignCenter)
+label3.setToolTip('this is a picture')
+label3.setPixmap(QPixmap("../dinosaur.png"))</t>
+  </si>
+  <si>
+    <t>18. QLabel(Widget) 和 QLabel()都可以创建label标签，区别是当传入widget时，创建的label会被当做该widget内的一个控件， 即该label的(0,0) 就是widget的(0,0)位置，如果不传参的话就需要用QVBoxLayout().addWidget(label)等方法加入到布局中，在将布局通过Widget.setlayout(layout)加入到窗口中
+19. Label.setText(), Label.setAlignment()
+20. 每个Label都有palette对象，可以通过Label.palette()获取，可以设置调色板颜色palette.setColor(QPalette.WindowText, Qt.blue)，其中QPalette.WindowText是指前景色，QPalette.Window是指背景色。设置好调色板后，还需要通过label.setPalette(palette)启用修改后的调色板.</t>
+  </si>
+  <si>
+    <t>22. label.setToolTip(),  label.setPixmap()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">label4 = QLabel(self)
+label4.setText("&lt;a href='https://www.baidu.com'&gt; baidu &lt;/a&gt;")
+label4.setAlignment(Qt.AlignCenter)
+label4.resize(200, 50)
+label4.setOpenExternalLinks(False)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>label4.linkHovered.connect(self.link_hovered)
+label4.setTextInteractionFlags(Qt.TextSelectableByMouse)</t>
+    </r>
+  </si>
+  <si>
+    <t>23. Qlabel还有一个信号是linkHovered，鼠标放到链接上就会触发。
+24. label.setTextInteractionFlags(Qt.TextSelectableByMouse)是鼠标能选区label上的文字</t>
+  </si>
+  <si>
+    <t>class WinForm(QWidget):
+    def __init__(self):
+        super().__init__()
+        label1 = QLabel('&amp;Name', self)
+        ed1 = QLineEdit(self)
+        label1.setBuddy(ed1)
+        bt1 = QPushButton('&amp;OK', self)
+        bt1.move(20, 30)
+        mLayout = QGridLayout(self)
+        mLayout.addWidget(label1, 0,0)
+        mLayout.addWidget(ed1,0,1,1,2)
+        self.resize(500,300)
+        bt1.clicked.connect(self.bt1click)
+    def bt1click(self):
+        print('123')</t>
+  </si>
+  <si>
+    <t>25. QPushButton 和 Qlabel都可以在构造时传入字符串和widget。
+26. label.setBuddy(widget)
+27. QGridLayout.addWidget(widget, 0,0,1,1) 指定添加哪个控件到哪个位置，所占的行数和列数</t>
+  </si>
+  <si>
+    <t>28. QFormLayout.addRow("xxx", Widget)
+29. QLineEdit.setPlaceholderText("xxx")
+30. QLineEdit.setEchoMode(mode)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QWidget):
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        self.setWindowTitle('Example')
+        fr = QFormLayout()
+        ed1 = QLineEdit()
+        ed2 = QLineEdit()
+        ed3 = QLineEdit()
+        ed4 = QLineEdit()
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fr.addRow("Normal", ed1)
+        fr.addRow("NoEcho", ed2)
+        fr.addRow("Password", ed3)
+        fr.addRow("PasswordEchoOnEdit", ed4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        ed1.setPlaceholderText("Normal")
+        ed2.setPlaceholderText("NoEcho")
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed3.setPlaceholderText("Password")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        ed4.setPlaceholderText("PasswordEchoOnEdit")
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed1.setEchoMode(QLineEdit.Normal)
+        ed2.setEchoMode(QLineEdit.NoEcho)
+        ed3.setEchoMode(QLineEdit.Password)
+        ed4.setEchoMode(QLineEdit.PasswordEchoOnEdit)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        self.setLayout(fr)</t>
+    </r>
+  </si>
+  <si>
+    <t>31. Validator的使用</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QWidget):
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        fr = QFormLayout(self)
+        ed1 = QLineEdit()
+        ed2 = QLineEdit()
+        ed3 = QLineEdit()
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed1.setFont(QFont('Arial', 15))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        fr.addRow("IP", ed1)
+        fr.addRow("MAC", ed2)
+        fr.addRow("Date", ed3)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed1.setInputMask("999.999.999.999;_")
+        ed2.setInputMask("&gt;HH:HH:HH:HH:HH:HH;_")
+        ed3.setInputMask("+99-999-9999-9999;")</t>
+    </r>
+  </si>
+  <si>
+    <t>32. QlineEdit.setInputMask("xxxxxxx")
+A 表示(a-zA-Z)必须，N表示(a-zA-Z0-9)必须，X表示任何字符都是必须输入的，9表示(0-9)必须， D表示(1-9)必须，H表示十六进制必须，B表示二进制必须, 上述字母的对应小写字母表示该类字符允许但不必需输入，(9和0对应)，&gt;表示所有字母都大写，&lt;表示所有字母都小写，结尾的;_表示空字符使用"_"表示
+33. lineEdit.setFont(font)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>from PyQt5.QtCore import QRegExp
+from PyQt5.QtGui import QIntValidator, QDoubleValidator, QRegExpValidator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+class WinForm(QWidget):
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        fr = QFormLayout(self)
+        ed1 = QLineEdit()
+        ed2 = QLineEdit()
+        ed3 = QLineEdit()
+        fr.addRow("Int", ed1)
+        fr.addRow("Double", ed2)
+        fr.addRow("String and Number", ed3)
+        intValidator = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QIntValidator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(self)
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  intValidator.setRange(1, 99)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        doubleValidator = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QDoubleValidator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(-99, 99, 3)  //bottom, top, decimal after point
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">doubleValidator.setNotation(QDoubleValidator.StandardNotation)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        reg = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QRegExp("[a-zA-Z0-9]+$")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        validator = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QRegExpValidator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(self)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>validator.setRegExp(reg)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ed1.setValidator(intValidator)
+        ed2.setValidator(doubleValidator)
+        ed3.setValidator(validator)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        self.setLayout(fr)</t>
+    </r>
+  </si>
+  <si>
+    <t>34. lineEdit.setReadOnly(True)
+35. 信号selectionChanged, textChanged(str), editingFinished, textEdited(str)</t>
+  </si>
+  <si>
+    <t>5. 自定义信号与槽函数，需要在QObject类中定义信号，其中信号可以重载。重载后的信号在连接和发送时都需要带上重载参数。</t>
+  </si>
+  <si>
+    <t>36. PushButton 有一个checked 属性，默认情况下一直为false，但是如果调用setcheckable(True)的话，该属性就会在button每次click时变一次（从true变为false或者从false变为true）
+37. pushbutton.toggle() 和 pushbutton.click()都是public slot， 也就是说这两个都是默认的槽函数，可以被调用也可以连接到信号
+38. button.setIcon(QIcon(QPixmap("xxx"))), button.setEnabled(True), button.setDefault(True)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QDialog):
+    def __init__(self,parent=None):
+        super().__init__(parent)
+        layout = QVBoxLayout()
+        self.btn1 = QPushButton("&amp;Button1")
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.btn1.setCheckable(True)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.btn1.toggled.connect(self.abc)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        self.btn2 = QPushButton("Button2")
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.btn2.clicked.connect(self.cde)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.btn2.setDefault(True)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        btn3 = QPushButton("&amp;Disabled")
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>btn3.setEnabled(False)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        layout.addWidget(self.btn1)
+        layout.addWidget(self.btn2)
+        layout.addWidget(btn3)
+        self.setLayout(layout)
+        self.setWindowTitle("Example")
+        self.setGeometry(200,200, 500,300)
+        self.count = 0
+    def abc(self):
+        print(self.btn1.isChecked(), self.count)
+        self.count+=1
+    def cde(self):
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.btn1.toggle()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QWidget):
+    def __init__(self,parent=None):
+        super().__init__(parent)
+        fr = QHBoxLayout()
+        rbtn1 = QRadioButton("RadioButton1")
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rbtn1.setChecked(True)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        rbtn1.toggled.connect(partial(self.btnState, rbtn1))
+        rbtn2 = QRadioButton("RadioButton2")
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rbtn2.toggled.connect(partial(self.btnState, rbtn2))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        fr.addWidget(rbtn1)
+        fr.addWidget(rbtn2)
+        self.setLayout(fr)
+        self.setWindowTitle("Example")
+    def btnState(self, btn):
+        if btn.text()=="RadioButton1":
+            if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> btn.isChecked()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+                print("RadioButton1")
+        else:
+            if btn.isChecked():
+                print("RadioButton2")</t>
+    </r>
+  </si>
+  <si>
+    <t>39. Radio button默认互斥，除非加入不同的QButtonGroup 或者QGroupBox.</t>
+  </si>
+  <si>
+    <t>40. GroupBox的使用
+41. checkbox的有两个状态，一个是checked，可以用setChecked(bool)和isChecked(bool)来使用；另一个是state，需要用setCheckState()和checkState()来使用。State的值可以是0（checked=false），1(half checked)，2(checked=true)，必须使用setTristate(True)才能使能半选中状态。</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QWidget):
+    def __init__(self,parent=None):
+        super().__init__(parent)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gb = QGroupBox("check boxes")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        fr = QHBoxLayout()
+        fr2 = QVBoxLayout(self)
+        cb1 = QCheckBox("&amp;Fruit")
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cb1.setChecked(True)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cb1.stateChanged.connect(lambda :self.btnState(cb1))</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        cb2 = QCheckBox("&amp;Barbecue")
+        cb2.stateChanged.connect(lambda:self.btnState(cb2))
+        cb3 = QCheckBox("&amp;Pizza")
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cb3.setTristate(True)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cb3.setCheckState(Qt.PartiallyChecked)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        cb3.stateChanged.connect(lambda:self.btnState(cb3))
+        fr.addWidget(cb1)
+        fr.addWidget(cb2)
+        fr.addWidget(cb3)
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gb.setLayout(fr)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fr2.addWidget(gb)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        self.setWindowTitle("Example")
+    def btnState(self,btn):
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>print(btn.text() +" "+ str(btn.isChecked()) + " " + str(btn.checkState()))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QWidget):
+    def __init__(self,parent=None):
+        super().__init__(parent)
+        fr = QHBoxLayout(self)
+        cb = QComboBox()
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cb.addItems(["Java", "Python", "C#", "PHP"])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        cb.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>currentIndexChanged[str]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.connect(self.stateChanged)
+        lb = QLabel("")
+        fr.addWidget(cb)
+        fr.addWidget(lb)
+        self.setGeometry(500, 300, 300,150)
+    def stateChanged(self, x):
+        print(x)</t>
+    </r>
+  </si>
+  <si>
+    <t>42. 常用方法： QComboBox.addItem(), addItems(), Clear(), count(), currentText(), itemText(i),  currentIndex()
+43. 信号： Activated,  currentIndexChanged, highlighted</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QWidget):
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        fr = QVBoxLayout(self)
+        self.lb = QLabel("")
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> self.sp = QSpinBox()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        fr.addWidget(self.lb)
+        fr.addWidget(self.sp)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.sp.valueChanged.connect(self.vchange)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    def vchange(self):
+        self.lb.setText("Current Value is: " + str(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.sp.value()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>))</t>
+    </r>
+  </si>
+  <si>
+    <t>44. QSpinBox
+    常用方法 setMinimum(), setMaximum(), setRange(), setValue(), Value(), setSingleStep()
+    信号： valueChanged</t>
+  </si>
+  <si>
+    <t>45. Qslider
+常用方法： setMinimum(int), setMaximum(int), setSingleStep(int), setValue(int), value(), setTickInterval(int), setTickPosition(Qslider.TicksBelow)
+常用信号：valueChanged(int)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QWidget):
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        fr = QVBoxLayout(self)
+        self.lb = QLabel()
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.slider = QSlider(Qt.Horizontal)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> self.slider.setMinimum(5)
+        self.slider.setMaximum(50)
+        self.slider.setSingleStep(1)
+        self.slider.setValue(10)
+        self.slider.setTickPosition(QSlider.TicksBelow)
+        self.slider.setTickInterval(5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        fr.addWidget(self.lb)
+        fr.addWidget(self.slider)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.slider.valueChanged.connect(self.vchange)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        self.setGeometry(500,300, 500,100)
+    def vchange(self, x):
+        self.lb.setText("Current Value is: " + str(x))</t>
+    </r>
+  </si>
+  <si>
+    <t>46. Qdialog 
+常用方法： setWindowModality(Qt.ApplicationModal),  reject(), exec_()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QMainWindow):
+    def __init__(self,parent=None):
+        super().__init__(parent)
+        self.resize(350,300)
+        self.btn = QPushButton("&amp;ShowDialog", self)
+        self.btn.move(50, 50)
+        self.btn.clicked.connect(self.showDialog)
+    def showDialog(self):
+        dl = QDialog()
+        bt = QPushButton("close", dl)
+        bt.move(50,50)
+        dl.setWindowTitle("example")
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dl.setWindowModality(Qt.ApplicationModal)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        bt.clicked.connect(lambda :self.closeDialog(dl))
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dl.exec_()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    def closeDialog(self, d):
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d.reject()</t>
+    </r>
+  </si>
+  <si>
     <t>XSS攻击就是用户提交的js代码被执行:
 &lt;script&gt;location.href="https://www.baidu.com";&lt;/script&gt;
 解决办法，将&lt;替换为'&amp;lt;'，将&gt;替换为'&amp;gt;'：
 str_replace('&lt;', '&amp;lt;', $text);
-str_replace('&gt;', '&amp;gt;', $text);</t>
+str_replace('&gt;', '&amp;gt;', $text);
+或者使用库函数htmlspecialchars()进行上述替换</t>
+  </si>
+  <si>
+    <t>47. QMessageBox
+常用方法：information(widget, title, text, btns, default_btn)
+                      question(widget, title, text, btns, default_btn)
+                      warning(widget, title, text, btns, default_btn)
+                      critical(widget, title, text, btns, default_btn)
+                      about(widget, title, text, btns, default_btn)
+                      setTitle()
+                      setText()
+                      setIcon()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QMainWindow):
+    def __init__(self,parent=None):
+        super().__init__(parent)
+        self.btn = QPushButton("Show Dialog", self)
+        self.btn.clicked.connect(self.sd)
+    def sd(self):
+        reply = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>QMessageBox.question(self,"abc", 'def', QMessageBox.Yes|QMessageBox.No, QMessageBox.Yes)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        print(reply)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QWidget):
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        fr = QVBoxLayout(self)
+        self.btn1 = QPushButton("GetInt")
+        self.btn2 = QPushButton("GetText")
+        self.btn3 = QPushButton("GetItem")
+        self.btn1.clicked.connect(self.getInt)
+        self.btn2.clicked.connect(self.getText)
+        self.btn3.clicked.connect(self.getItem)
+        fr.addWidget(self.btn1)
+        fr.addWidget(self.btn2)
+        fr.addWidget(self.btn3)
+        self.resize(350,300)
+    def getInt(self):
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> num, ok = QInputDialog.getInt(self, "getInt", "Int")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        if ok:
+            print(num)
+    def getText(self):
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>txt, ok = QInputDialog.getText(self, "getText", "Text")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        if ok:
+            print(txt)
+    def getItem(self):
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it, ok = QInputDialog.getItem(self, "GetItem", "item", ['a', 'b','c'], 0, False)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        if ok:
+            print(it)</t>
+    </r>
+  </si>
+  <si>
+    <t>48. QInputDialog
+常用方法：inputdialog.getInt(), getText, getDouble(), getItem()</t>
+  </si>
+  <si>
+    <t>49. QFontDialog
+常用方法： QFontDialog.getFont()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QWidget):
+    def __init__(self,parent=None):
+        super().__init__(parent)
+        fr = QVBoxLayout(self)
+        self.items = [QPushButton("select font"), QLineEdit("Test Font Example")]
+        for item in self.items:
+            fr.addWidget(item)
+        self.items[0].clicked.connect(self.selectfont)
+        self.resize(350,300)
+    def selectfont(self):
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ft , ok = QFontDialog.getFont()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        if ok:
+            self.items[1].setFont(ft)</t>
+    </r>
+  </si>
+  <si>
+    <t>50. QFileDialog
+常用方法： getOpenFileName(), setFileMode(), setNameFilter(), selectedFiles()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QWidget):
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        fr = QVBoxLayout(self)
+        self.btns = [QPushButton("getfile"), QPushButton("getfiles")]
+        self.funcs = [self.getfile, self.getfiles]
+        [fr.addWidget(item) for item in self.btns]
+        [x.clicked.connect(y) for x,y in zip(self.btns, self.funcs)]
+        self.resize(350,300)
+    def getfile(self):
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filename, *_ = QFileDialog.getOpenFileName(self, 'OpenFile', "D:\\", "Image Files (*.txt  *.zip)")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        print(filename)
+    def getfiles(self):
+        dlg = QFileDialog()
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dlg.setFileMode(QFileDialog.AnyFile)
+        dlg.setNameFilter("Image Files (*.txt *.zip)")
+        dlg.exec_()
+        print(dlg.selectedFiles())</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QWidget):
+    def __init__(self,parent):
+        super().__init__(parent)
+        self.resize(350, 300)
+        self.text = "Welcome To PyQt5"
+    def paintEvent(self, event):
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pt = QPainter()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pt.begin(self)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        self.drawText(pt)
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> pt.end()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    def drawText(self, pt):
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pt.setPen(QColor(168, 34,10))
+        pt.setFont(QFont('Arial', 20))
+        pt.drawText(self.rect(), Qt.AlignCenter, self.text)</t>
+    </r>
+  </si>
+  <si>
+    <t>51. Qpainter
+常用方法：  painter.drawText(rect, alignment, text)
+                         painter.drawPoint(x, y)
+                         painter.drawLine(x1, y1, x2, y2)
+                         painter.drawRect(x, y, width, height)
+                         painter.setPen(QPen(Qt.black, 2, Qt.SolidLine))
+                         pen.setStyle(Qt.DashLine)
+                         painter.setBrush(QBrush(Qt.SolidPattern))</t>
+  </si>
+  <si>
+    <t>52. Clipboard
+常用方法：QApplication.clipboard().setText(xxxx)
+                      Qapplication.clipboard().text()</t>
   </si>
 </sst>
 </file>
@@ -2979,8 +5068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3047,8 +5136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3083,7 +5172,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>266</v>
       </c>
@@ -3182,9 +5271,9 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>309</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3194,6 +5283,241 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="121.44140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="96.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="216" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="270" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="346.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3216,7 +5540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>

--- a/Python_Library.xlsx
+++ b/Python_Library.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="ctypes" sheetId="1" r:id="rId1"/>
@@ -17,17 +17,20 @@
     <sheet name="JS" sheetId="6" r:id="rId8"/>
     <sheet name="encoding" sheetId="7" r:id="rId9"/>
     <sheet name="Moduel and Packages" sheetId="8" r:id="rId10"/>
-    <sheet name="PHP" sheetId="11" r:id="rId11"/>
-    <sheet name="PyQt5" sheetId="14" r:id="rId12"/>
-    <sheet name="xlsxwriter" sheetId="9" r:id="rId13"/>
-    <sheet name="numpy &amp; pandas" sheetId="13" r:id="rId14"/>
+    <sheet name="Serial" sheetId="17" r:id="rId11"/>
+    <sheet name="PHP" sheetId="11" r:id="rId12"/>
+    <sheet name="PyQt5" sheetId="14" r:id="rId13"/>
+    <sheet name="UnitTest" sheetId="16" r:id="rId14"/>
+    <sheet name="matplotlib" sheetId="15" r:id="rId15"/>
+    <sheet name="xlsxwriter" sheetId="9" r:id="rId16"/>
+    <sheet name="numpy &amp; pandas" sheetId="13" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="379">
   <si>
     <t>1. 加载动态链接库： ctypes导出两种对象,cdll和windll，可以用于加载动态链接库。windll库采用stdcall调用函数，stdcall用cdecl调用函数。 在windows中导入动态链接库时可以像访问类属性那样，采用windll.XXX的方式，Windows会自动添加“.dll”后缀。</t>
   </si>
@@ -1880,22 +1883,6 @@
     <t>db-&gt;exec('set names utf8');   设置数据库字符编码类型</t>
   </si>
   <si>
-    <t>为了防止注入攻击， 可以采用占位符和预处理对SQL语句进行预先处理：
-$sql = 'insert into table_name (field_1) values (:place_holder1, :place_holder2)';
-$stmt = $db-&gt;prepare($sql);
-$stmt-&gt;bindParam(':place_holder1', $value1);
-$stmt-&gt;bindParam(':place_holder2', $value2);
-$count = $stmt-&gt;execute();</t>
-  </si>
-  <si>
-    <t>$sql = 'select * from table_name where id=:id';
-$stmt = $db-&gt;prepare($sql);
-$stmt-&gt;bindParam(':id', $id);
-$stmt-&gt;execute();
-$res = $stmt-&gt;fetchAll();  //获取多条信息
-$res = $stmt-&gt;fetch(); //获取一条信息</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 $sql = 'insert into table_name (field_1) values (?, ?)';
 $stmt = $db-&gt;prepare($sql);
@@ -4000,6 +3987,428 @@
     <t>52. Clipboard
 常用方法：QApplication.clipboard().setText(xxxx)
                       Qapplication.clipboard().text()</t>
+  </si>
+  <si>
+    <t>class WinForm(QWidget):
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        self.initUI()
+    def initUI(self):
+        self.btn = QPushButton("Show Calendar", self)
+        self.btn.setCheckable(True)
+        self.btn.clicked.connect(self.btnclicked)
+        self.cal = QCalendarWidget()
+        self.cal.setMinimumDate(QDate(1980, 1,1))
+        self.cal.setMaximumDate(QDate(2100, 1,1))
+        self.cal.setGridVisible(True)
+        self.cal.move(20,20)
+        self.cal.clicked[QDate].connect(self.showDate)
+        self.setGeometry(100,100,400,350)
+    def showDate(self, date):
+        print(date.toString('yyyy-MM-dd dddd'))
+    def btnclicked(self, status):
+        if status:
+            self.cal.show()
+        else:
+            self.cal.close()</t>
+  </si>
+  <si>
+    <t>53. QCalendar
+常用方法： setMinimumDate(QDate)
+                          setMaximumDate(QDate)
+                          setSelectedDate(QDate)
+                          selectedDate()
+                          setGridVisible(bool)
+信号：  clicked[QDate]</t>
+  </si>
+  <si>
+    <t>54. QMenu
+常用方法： addMenu(QMenu)
+                          addAction(QAction)
+                         addSeperator()
+                         setShortcut(QKeySequence("Ctrl+X"))
+menu信号：         triggered
+action信号：        triggered[QAction]</t>
+  </si>
+  <si>
+    <t>55. QToolBar
+常用方法：addAction(QAction)
+                         addSeperator()
+                         setMoveable()</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QMainWindow):
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bar = QMenuBar()
+        file = QMenu("File", self)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  action_new = QAction("New", self)
+        action_new.setShortcut(QKeySequence("Ctrl+X"))
+        action_new.triggered.connect(self.ac_new)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        action_edit = QAction("Edit", self)
+        file.addAction(action_new)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>file.addSeparator()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        file.addAction(action_edit)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>file.triggered[QAction].connect(self.ac_file)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bar.addMenu(file)
+        self.setMenuBar(bar)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        self.setGeometry(100, 100, 350, 300)
+    def ac_new(self):
+        print("new")
+    def ac_file(self, action):
+        print(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>action.text()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QMainWindow):
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        self.setGeometry(100,100, 350, 300)
+        self.setWindowTitle("Example")
+        self.initUI()
+    def initUI(self):
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tb = QToolBar()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>action_new = QAction(QIcon("../image/se/baidu.ico"), "New", self)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>action_new.triggered.connect(self.ac_new)
+        tb.addAction(action_new)
+        self.addToolBar(tb)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    def ac_new(self):
+        print("new")</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class WinForm(QMainWindow):
+    def __init__(self, parent=None):
+        super().__init__(parent)
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.statusBar = QStatusBar()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        menub = QMenuBar(self)
+        file = QMenu("File", self)
+        action_new = QAction("New", self)
+        file.addAction(action_new)
+        menub.addMenu(file)
+        file.triggered[QAction].connect(self.trig)
+        self.setStatusBar(self.statusBar)
+    def trig(self, action):
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.statusBar.showMessage(action.text())</t>
+    </r>
+  </si>
+  <si>
+    <t>56. QStatusBar
+常用方法： addWidget(widget)
+                          addPermanentWidget(widget)
+                         showMessage("xxxx")
+                         removeWidget(widget)</t>
+  </si>
+  <si>
+    <t>import unittest
+def func1(x, y):
+    return x+y
+class FuncTest(unittest.TestCase):
+    def test_func1(self):
+        ret = func1(5, 10)
+        self.assertEqual(ret, 15)
+if __name__ == "__main__":
+    unittest.main()</t>
+  </si>
+  <si>
+    <t>assertEqual(a, b)
+assertNotEqual(a, b)
+assertTrue(x)
+assertFalse(x)
+assertIn(x)
+assertNotIn(item, list)</t>
+  </si>
+  <si>
+    <t>1. 使用unittest导入自动测试模块
+2. 创建自动化测试类，该类必须继承unittest.TestCase
+3. 定义以test_开头的一系列测试函数，这些函数将被自动执行
+4. 测试函数中使用断言进行测试
+5. 调用unittest.main()自动执行测试</t>
+  </si>
+  <si>
+    <t>ajax：
+  $.ajax({
+    url: "...",
+    type: "post",
+    data: "XXXX",
+    success: function(data){console.log("XXX")},
+    error: function(response){console.log("YYY")}
+ });</t>
+  </si>
+  <si>
+    <t>$sql = 'select * from table_name where id=:id';
+$stmt = $db-&gt;prepare($sql);
+$stmt-&gt;bindParam(':id', $id);
+$stmt-&gt;execute(); 
+$res = $stmt-&gt;fetchAll();  //获取多条信息
+$res = $stmt-&gt;fetch(); //获取一条信息</t>
+  </si>
+  <si>
+    <t>为了防止注入攻击， 可以采用占位符和预处理对SQL语句进行预先处理：
+$sql = 'insert into table_name (field_1) values (:place_holder1, :place_holder2)';
+$stmt = $db-&gt;prepare($sql);
+$stmt-&gt;bindParam(':place_holder1', $value1);
+$stmt-&gt;bindParam(':place_holder2', $value2);
+$count = $stmt-&gt;execute();
+也可以在执行execute的同时传入参数：
+ 或者 $stmt-&gt;execute([':place_holder1'=&gt;val1, ':place_holder2'=&gt;val2]);</t>
+  </si>
+  <si>
+    <t>将php数组转为json：
+json_encode(['code'=&gt;1, 'msg'=&gt;'failed'])</t>
+  </si>
+  <si>
+    <t>php返回json数据时需要加入json头信息：
+header('Content-type: application/json');</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># coding:utf-8
+import serial.tools.list_ports
+plist = list(serial.tools.list_ports.comports())
+if len(plist) &lt;= 0:
+    print("没有发现端口!")
+else:
+    plist_0 = list(plist[0])
+    serialName = plist_0[0]
+    serialFd = serial.Serial(serialName, 9600, timeout=60)
+    print("可用端口名&gt;&gt;&gt;", serialFd.name)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import serial
+class Ser(object):
+    def __init__(self):
+        # 打开端口
+        self.port = serial.Serial(port='COM4', baudrate=9600, bytesize=8, parity='E', stopbits=1, timeout=2)
+    # 发送指令的完整流程
+    def send_cmd(self, cmd):
+        self.port.write(cmd)
+        response = self.port.readall()
+        response = self.convert_hex(response)
+        return response
+    # 转成16进制的函数
+    def convert_hex(self, string):
+        res = []
+        result = []
+        for item in string:
+            res.append(item)
+        for i in res:
+            result.append(hex(i))
+        return result
+</t>
   </si>
 </sst>
 </file>
@@ -4440,54 +4849,54 @@
       <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.6640625" customWidth="1"/>
-    <col min="3" max="3" width="83.5546875" customWidth="1"/>
+    <col min="1" max="1" width="79.7109375" customWidth="1"/>
+    <col min="3" max="3" width="83.5703125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>8</v>
       </c>
@@ -4500,7 +4909,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -4513,7 +4922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -4526,7 +4935,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
@@ -4539,7 +4948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -4552,7 +4961,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -4565,7 +4974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -4578,7 +4987,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
@@ -4591,7 +5000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -4604,7 +5013,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -4617,7 +5026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>31</v>
       </c>
@@ -4630,7 +5039,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
@@ -4643,7 +5052,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>35</v>
       </c>
@@ -4656,7 +5065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>38</v>
       </c>
@@ -4669,7 +5078,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>41</v>
       </c>
@@ -4682,7 +5091,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>43</v>
       </c>
@@ -4695,7 +5104,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>45</v>
       </c>
@@ -4708,7 +5117,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
@@ -4721,7 +5130,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>49</v>
       </c>
@@ -4734,7 +5143,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>50</v>
       </c>
@@ -4747,7 +5156,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>51</v>
       </c>
@@ -4760,7 +5169,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>52</v>
       </c>
@@ -4773,72 +5182,72 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="228" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" ht="228" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>72</v>
       </c>
@@ -4846,22 +5255,22 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" ht="255" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>77</v>
       </c>
@@ -4869,37 +5278,37 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>85</v>
       </c>
@@ -4907,12 +5316,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>88</v>
       </c>
@@ -4920,97 +5329,97 @@
         <v>89</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="144" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" ht="210" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>108</v>
       </c>
@@ -5018,42 +5427,42 @@
         <v>109</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="288" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" ht="300" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>118</v>
       </c>
@@ -5069,60 +5478,60 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.6640625" customWidth="1"/>
+    <col min="1" max="1" width="88.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>176</v>
       </c>
@@ -5134,381 +5543,189 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.44140625" customWidth="1"/>
-    <col min="2" max="2" width="56.88671875" customWidth="1"/>
-    <col min="3" max="3" width="64.109375" customWidth="1"/>
+    <col min="1" max="1" width="118.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="70.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="144" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="144" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>351</v>
+    <row r="1" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="360" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>378</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="121.44140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="96.44140625" customWidth="1"/>
+    <col min="1" max="1" width="83.42578125" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
-        <v>309</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="331.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="316.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="195" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="216" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="270" customHeight="1" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="346.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="360" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>333</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="374.4" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="302.39999999999998" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="345.6" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="172.8" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="49.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -5519,18 +5736,335 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="121.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="96.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="270" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="345" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="165" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="255" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="346.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="390" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="315" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="360" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="285" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="150" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="300" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="330" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="240" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="210" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.7109375" customWidth="1"/>
+    <col min="2" max="2" width="81.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="225" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="5" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>169</v>
       </c>
@@ -5540,7 +6074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -5548,18 +6082,18 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="98.6640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="79.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="98.7109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>263</v>
       </c>
@@ -5567,32 +6101,32 @@
         <v>262</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="199.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>273</v>
       </c>
@@ -5600,7 +6134,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>274</v>
       </c>
@@ -5608,12 +6142,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="240" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>278</v>
       </c>
@@ -5621,7 +6155,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>280</v>
       </c>
@@ -5629,7 +6163,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>282</v>
       </c>
@@ -5637,7 +6171,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>285</v>
       </c>
@@ -5645,7 +6179,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>287</v>
       </c>
@@ -5653,7 +6187,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>288</v>
       </c>
@@ -5661,7 +6195,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="273.60000000000002" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="285" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>290</v>
       </c>
@@ -5683,357 +6217,357 @@
       <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="111.6640625" customWidth="1"/>
+    <col min="1" max="1" width="111.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="72" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" ht="75" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" ht="225" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>209</v>
       </c>
@@ -6055,42 +6589,42 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="106.5546875" customWidth="1"/>
+    <col min="1" max="1" width="106.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -6105,18 +6639,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.5546875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="134.5546875" customWidth="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="4" max="4" width="24.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="1" max="1" width="70.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="134.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>226</v>
       </c>
@@ -6124,7 +6660,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>227</v>
       </c>
@@ -6132,7 +6668,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>228</v>
       </c>
@@ -6140,7 +6676,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>229</v>
       </c>
@@ -6148,7 +6684,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>230</v>
       </c>
@@ -6156,7 +6692,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>232</v>
       </c>
@@ -6164,7 +6700,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>234</v>
       </c>
@@ -6172,7 +6708,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>236</v>
       </c>
@@ -6180,7 +6716,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>238</v>
       </c>
@@ -6188,7 +6724,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>240</v>
       </c>
@@ -6196,12 +6732,12 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="255" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>242</v>
       </c>
@@ -6209,7 +6745,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>245</v>
       </c>
@@ -6217,7 +6753,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>246</v>
       </c>
@@ -6225,7 +6761,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>248</v>
       </c>
@@ -6233,7 +6769,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="270" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>250</v>
       </c>
@@ -6241,7 +6777,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>252</v>
       </c>
@@ -6249,7 +6785,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>254</v>
       </c>
@@ -6257,7 +6793,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>256</v>
       </c>
@@ -6265,7 +6801,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="288" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="300" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>258</v>
       </c>
@@ -6287,42 +6823,42 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="124.33203125" customWidth="1"/>
+    <col min="1" max="1" width="124.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" ht="270" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" ht="360" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="244.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" ht="255" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>155</v>
       </c>
@@ -6340,9 +6876,9 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -6358,7 +6894,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6370,7 +6906,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6384,22 +6920,22 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.33203125" customWidth="1"/>
+    <col min="1" max="1" width="88.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="259.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" ht="270" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>159</v>
       </c>
